--- a/pmi/commmodity_down.xlsx
+++ b/pmi/commmodity_down.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Commodity Price Down</t>
+          <t>Commodities Down in Price</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -448,145 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Copper Based Products</t>
+          <t>Steel — Carbon*.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Packaging</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Road Freight</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Steel — Stainless</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Wood Pallets</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Plastic Resins</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Corrugate Boxes</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Caustic Soda</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Steel Products</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Steel — Hot Rolled</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Steel</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
